--- a/data/tests/cluster_55.xlsx
+++ b/data/tests/cluster_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,181 @@
         <v>55</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rv1030</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kdpB Rv1030 MTCY10G2.19c</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FUNCTION: Part of the high-affinity ATP-driven potassium transport (or Kdp) system, which catalyzes the hydrolysis of ATP coupled with the electrogenic transport of potassium into the cytoplasm. This subunit is responsible for energy coupling to the transport system. {ECO:0000255|HAMAP-Rule:MF_00285}.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rv1283c</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rv1283c MTCY373.02c</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rv0315</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rv0315</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rv2836c</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dinF Rv2836c</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv3218</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rv3218</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv2799</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rv2799</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv2622</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rv2622</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv1211</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rv1211</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv0835</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>lpqQ Rv0835</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
